--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAQ106</t>
+          <t>BOVAQ105</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F2" t="n">
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>10.01</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAQ105</t>
+          <t>BOVAQ104</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>2014.45</v>
+        <v>10.67</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAQ104</t>
+          <t>BOVAQ103</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F4" t="n">
         <v>0.01</v>
@@ -562,7 +562,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAQ103</t>
+          <t>BOVAQ102</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F5" t="n">
         <v>0.01</v>
@@ -596,7 +596,7 @@
         <v>30</v>
       </c>
       <c r="H5" t="n">
-        <v>2006</v>
+        <v>548.22</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAQ102</t>
+          <t>BOVAQ100</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>548.22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAQ100</t>
+          <t>BOVAQ995</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAQ995</t>
+          <t>BOVAQ990</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>99.5</v>
+        <v>99</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAQ990</t>
+          <t>BOVAQ980</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
@@ -732,7 +732,7 @@
         <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>125</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAQ980</t>
+          <t>BOVAQ970</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>2911.05</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAQ970</t>
+          <t>BOVAQ960</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>2911.05</v>
+        <v>1314.7</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -491,10 +491,10 @@
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>25</v>
+        <v>9.640000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -525,10 +525,10 @@
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>10.67</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="4">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -471,12 +471,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAQ105</t>
+          <t>BOVAR105</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -488,13 +488,13 @@
         <v>105</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>9.640000000000001</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3">
@@ -505,12 +505,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAQ104</t>
+          <t>BOVAR104</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -522,13 +522,13 @@
         <v>104</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -539,12 +539,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAQ103</t>
+          <t>BOVAR103</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -556,13 +556,13 @@
         <v>103</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5">
@@ -573,12 +573,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAQ102</t>
+          <t>BOVAR89</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -590,13 +590,13 @@
         <v>102</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>548.22</v>
+        <v>71.8</v>
       </c>
     </row>
     <row r="6">
@@ -607,12 +607,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAQ100</t>
+          <t>BOVAR100</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="7">
@@ -641,12 +641,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAQ995</t>
+          <t>BOVAR99</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>50</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="8">
@@ -675,12 +675,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAQ990</t>
+          <t>BOVAR995</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>99</v>
+        <v>99.5</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>125</v>
+        <v>99.02</v>
       </c>
     </row>
     <row r="9">
@@ -709,12 +709,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAQ980</t>
+          <t>BOVAR990</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -743,12 +743,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAQ970</t>
+          <t>BOVAR980</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>2911.05</v>
+        <v>101.06</v>
       </c>
     </row>
     <row r="11">
@@ -777,12 +777,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAQ960</t>
+          <t>BOVAR970</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>1314.7</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -491,10 +491,10 @@
         <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>600</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3">
@@ -528,7 +528,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -556,13 +556,13 @@
         <v>103</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="H4" t="n">
-        <v>1.5</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +590,13 @@
         <v>102</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>71.8</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="6">
@@ -627,10 +627,10 @@
         <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H6" t="n">
-        <v>1070</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7" t="n">
-        <v>1058</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -726,13 +726,13 @@
         <v>99</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -763,10 +763,10 @@
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>101.06</v>
+        <v>620</v>
       </c>
     </row>
     <row r="11">
@@ -794,13 +794,13 @@
         <v>97</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G11" t="n">
         <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>60</v>
+        <v>508.51</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAR105</t>
+          <t>BOVAR103</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="H2" t="n">
-        <v>232</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAR104</t>
+          <t>BOVAR89</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F3" t="n">
         <v>0.03</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>24</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAR103</t>
+          <t>BOVAR100</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F4" t="n">
         <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>378</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAR89</t>
+          <t>BOVAR99</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>11.2</v>
+        <v>81.06</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAR100</t>
+          <t>BOVAR995</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>101</v>
+        <v>99.5</v>
       </c>
       <c r="F6" t="n">
         <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>330</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAR99</t>
+          <t>BOVAR990</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>13</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAR995</t>
+          <t>BOVAR980</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>99.5</v>
+        <v>98</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>99.02</v>
+        <v>20.02</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAR990</t>
+          <t>BOVAR970</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
@@ -732,7 +732,7 @@
         <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>35</v>
+        <v>508.51</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAR980</t>
+          <t>BOVAR965</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>98</v>
+        <v>96.5</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>620</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAR970</t>
+          <t>BOVAR960</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H11" t="n">
-        <v>508.51</v>
+        <v>2533.25</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAR103</t>
+          <t>BOVAR89</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F2" t="n">
         <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>378</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAR89</t>
+          <t>BOVAR100</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.62</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAR100</t>
+          <t>BOVAR99</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
         <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>330</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAR99</t>
+          <t>BOVAR995</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>81.06</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAR995</t>
+          <t>BOVAR990</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>99.5</v>
+        <v>99</v>
       </c>
       <c r="F6" t="n">
         <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>20</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAR990</t>
+          <t>BOVAR980</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>162</v>
+        <v>20.02</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAR980</t>
+          <t>BOVAR970</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>20.02</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAR970</t>
+          <t>BOVAR965</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>97</v>
+        <v>96.5</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>508.51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAR965</t>
+          <t>BOVAR960</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>96.5</v>
+        <v>96</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H10" t="n">
-        <v>30</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAR960</t>
+          <t>BOVAR955</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>96</v>
+        <v>95.5</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>2533.25</v>
+        <v>0.49</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>2.28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -528,7 +528,7 @@
         <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H4" t="n">
-        <v>234</v>
+        <v>868</v>
       </c>
     </row>
     <row r="5">
@@ -593,10 +593,10 @@
         <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>20</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6">
@@ -661,10 +661,10 @@
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>20.02</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>2873.21</v>
       </c>
     </row>
     <row r="9">
@@ -729,10 +729,10 @@
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
@@ -763,10 +763,10 @@
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>255</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.49</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -522,13 +522,13 @@
         <v>101</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>868</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -593,10 +593,10 @@
         <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>800</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -627,10 +627,10 @@
         <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>162</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
@@ -661,10 +661,10 @@
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>2873.21</v>
+        <v>41.47</v>
       </c>
     </row>
     <row r="9">
@@ -729,10 +729,10 @@
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="3">
@@ -522,13 +522,13 @@
         <v>101</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>36</v>
+        <v>262.02</v>
       </c>
     </row>
     <row r="5">
@@ -624,13 +624,13 @@
         <v>99</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>45</v>
+        <v>119.5</v>
       </c>
     </row>
     <row r="7">
@@ -664,7 +664,7 @@
         <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>53</v>
+        <v>109.48</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>41.47</v>
+        <v>21.41</v>
       </c>
     </row>
     <row r="9">
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -763,10 +763,10 @@
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAR89</t>
+          <t>BOVAR100</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>21.2</v>
+        <v>2582.77</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAR100</t>
+          <t>BOVAR99</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H3" t="n">
-        <v>280</v>
+        <v>143.25</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAR99</t>
+          <t>BOVAR995</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>262.02</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAR995</t>
+          <t>BOVAR990</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>99.5</v>
+        <v>99</v>
       </c>
       <c r="F5" t="n">
         <v>0.02</v>
@@ -596,7 +596,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAR990</t>
+          <t>BOVAR980</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>119.5</v>
+        <v>109.48</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAR980</t>
+          <t>BOVAR970</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>109.48</v>
+        <v>121.09</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAR970</t>
+          <t>BOVAR965</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>97</v>
+        <v>96.5</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>21.41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAR965</t>
+          <t>BOVAR960</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>96.5</v>
+        <v>96</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAR960</t>
+          <t>BOVAR955</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>96</v>
+        <v>95.5</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
@@ -766,7 +766,7 @@
         <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAR955</t>
+          <t>BOVAR950</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>95.5</v>
+        <v>95</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>78</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAR100</t>
+          <t>BOVAR99</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
         <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H2" t="n">
-        <v>2582.77</v>
+        <v>232.54</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAR99</t>
+          <t>BOVAR995</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>143.25</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAR995</t>
+          <t>BOVAR990</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>99.5</v>
+        <v>99</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAR990</t>
+          <t>BOVAR980</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,13 +587,13 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F5" t="n">
         <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
         <v>200</v>
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAR980</t>
+          <t>BOVAR970</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H6" t="n">
-        <v>109.48</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAR970</t>
+          <t>BOVAR965</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>97</v>
+        <v>96.5</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>121.09</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAR965</t>
+          <t>BOVAR960</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>96.5</v>
+        <v>96</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAR960</t>
+          <t>BOVAR955</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>96</v>
+        <v>95.5</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAR955</t>
+          <t>BOVAR950</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>95.5</v>
+        <v>95</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>30</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAR950</t>
+          <t>BOVAR940</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>154</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -488,13 +488,13 @@
         <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>232.54</v>
+        <v>303.66</v>
       </c>
     </row>
     <row r="3">
@@ -522,13 +522,13 @@
         <v>99.5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>65</v>
+        <v>810</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>80</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +590,13 @@
         <v>98</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>200</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
@@ -624,13 +624,13 @@
         <v>97</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>2956</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -661,10 +661,10 @@
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>420.02</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>60</v>
+        <v>310.02</v>
       </c>
     </row>
     <row r="9">
@@ -729,10 +729,10 @@
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -766,7 +766,7 @@
         <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>154</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -488,13 +488,13 @@
         <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>303.66</v>
+        <v>283.64</v>
       </c>
     </row>
     <row r="3">
@@ -559,10 +559,10 @@
         <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>30.02</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +590,13 @@
         <v>98</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01</v>
+        <v>6610</v>
       </c>
     </row>
     <row r="6">
@@ -658,13 +658,13 @@
         <v>96.5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>420.02</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -763,10 +763,10 @@
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11">
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -488,13 +488,13 @@
         <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>283.64</v>
+        <v>10.89</v>
       </c>
     </row>
     <row r="3">
@@ -522,13 +522,13 @@
         <v>99.5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H3" t="n">
-        <v>810</v>
+        <v>550</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="H4" t="n">
-        <v>30.02</v>
+        <v>2443.01</v>
       </c>
     </row>
     <row r="5">
@@ -593,10 +593,10 @@
         <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
-        <v>6610</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="6">
@@ -627,10 +627,10 @@
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         <v>96.5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>48</v>
+        <v>76.01000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -763,10 +763,10 @@
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAR99</t>
+          <t>BOVAR995</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>10.89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAR995</t>
+          <t>BOVAR990</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>99.5</v>
+        <v>99</v>
       </c>
       <c r="F3" t="n">
         <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>550</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAR990</t>
+          <t>BOVAR980</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G4" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H4" t="n">
-        <v>2443.01</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAR980</t>
+          <t>BOVAR970</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H5" t="n">
-        <v>4400</v>
+        <v>111.91</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAR970</t>
+          <t>BOVAR965</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>97</v>
+        <v>96.5</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>3938</v>
+        <v>76.01000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAR965</t>
+          <t>BOVAR960</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>96.5</v>
+        <v>96</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>76.01000000000001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAR960</t>
+          <t>BOVAR955</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>96</v>
+        <v>95.5</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>310.02</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAR955</t>
+          <t>BOVAR950</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>95.5</v>
+        <v>95</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAR950</t>
+          <t>BOVAR940</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAR940</t>
+          <t>BOVAR930</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -525,10 +525,10 @@
         <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>272</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -627,10 +627,10 @@
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>76.01000000000001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -695,10 +695,10 @@
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>30</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9">
@@ -726,13 +726,13 @@
         <v>95</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H9" t="n">
-        <v>70</v>
+        <v>770</v>
       </c>
     </row>
     <row r="10">
@@ -763,10 +763,10 @@
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>16</v>
+        <v>201.25</v>
       </c>
     </row>
     <row r="11">
@@ -797,10 +797,10 @@
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H11" t="n">
-        <v>220</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAR995</t>
+          <t>BOVAR99</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
         <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAR990</t>
+          <t>BOVAR995</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>99</v>
+        <v>99.5</v>
       </c>
       <c r="F3" t="n">
         <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAR980</t>
+          <t>BOVAR990</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>2181</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAR970</t>
+          <t>BOVAR980</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H5" t="n">
-        <v>111.91</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAR965</t>
+          <t>BOVAR970</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>96.5</v>
+        <v>97</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAR960</t>
+          <t>BOVAR965</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>96</v>
+        <v>96.5</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAR955</t>
+          <t>BOVAR960</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>95.5</v>
+        <v>96</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAR950</t>
+          <t>BOVAR955</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>95</v>
+        <v>95.5</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>770</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAR940</t>
+          <t>BOVAR950</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>201.25</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAR930</t>
+          <t>BOVAR940</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>520</v>
+        <v>201.25</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAR99</t>
+          <t>BOVAR980</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F2" t="n">
         <v>0.02</v>
@@ -494,7 +494,7 @@
         <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>49.8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAR995</t>
+          <t>BOVAR970</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>99.5</v>
+        <v>97</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>19</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAR990</t>
+          <t>BOVAR965</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>99</v>
+        <v>96.5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAR980</t>
+          <t>BOVAR960</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H5" t="n">
-        <v>2181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAR970</t>
+          <t>BOVAR955</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>97</v>
+        <v>95.5</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAR965</t>
+          <t>BOVAR950</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>96.5</v>
+        <v>95</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAR960</t>
+          <t>BOVAR940</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>250</v>
+        <v>201.25</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAR955</t>
+          <t>BOVAR930</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>95.5</v>
+        <v>93</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>19.5</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAR950</t>
+          <t>BOVAR920</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
@@ -766,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAR940</t>
+          <t>BOVAR910</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>201.25</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -488,13 +488,13 @@
         <v>98</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>14</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3">
@@ -525,10 +525,10 @@
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>410</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -695,10 +695,10 @@
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>201.25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -729,10 +729,10 @@
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -491,10 +491,10 @@
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>97</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -562,7 +562,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -593,10 +593,10 @@
         <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>170</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6">
@@ -661,10 +661,10 @@
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -491,10 +491,10 @@
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAR980</t>
+          <t>BOVAR990</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F2" t="n">
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>14</v>
+        <v>115.01</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAR970</t>
+          <t>BOVAR980</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAR965</t>
+          <t>BOVAR970</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>96.5</v>
+        <v>97</v>
       </c>
       <c r="F4" t="n">
         <v>0.01</v>
@@ -562,7 +562,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAR960</t>
+          <t>BOVAR965</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>96</v>
+        <v>96.5</v>
       </c>
       <c r="F5" t="n">
         <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>550</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAR955</t>
+          <t>BOVAR960</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>95.5</v>
+        <v>96</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>30</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAR950</t>
+          <t>BOVAR955</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>95</v>
+        <v>95.5</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
@@ -664,7 +664,7 @@
         <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAR940</t>
+          <t>BOVAR950</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAR930</t>
+          <t>BOVAR940</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAR920</t>
+          <t>BOVAR930</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H10" t="n">
-        <v>200</v>
+        <v>7286.88</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAR910</t>
+          <t>BOVAR920</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAR990</t>
+          <t>BOVAR995</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>99</v>
+        <v>99.5</v>
       </c>
       <c r="F2" t="n">
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>115.01</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAR980</t>
+          <t>BOVAR990</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>14</v>
+        <v>115.01</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAR970</t>
+          <t>BOVAR980</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F4" t="n">
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAR965</t>
+          <t>BOVAR970</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>96.5</v>
+        <v>97</v>
       </c>
       <c r="F5" t="n">
         <v>0.01</v>
@@ -596,7 +596,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAR960</t>
+          <t>BOVAR965</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>96</v>
+        <v>96.5</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>550</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAR955</t>
+          <t>BOVAR960</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>95.5</v>
+        <v>96</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>30</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAR950</t>
+          <t>BOVAR955</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>95</v>
+        <v>95.5</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
@@ -698,7 +698,7 @@
         <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAR940</t>
+          <t>BOVAR950</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAR930</t>
+          <t>BOVAR940</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>7286.88</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAR920</t>
+          <t>BOVAR930</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H11" t="n">
-        <v>200</v>
+        <v>7286.88</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -471,12 +471,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAR995</t>
+          <t>BOVAS100</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>203</v>
       </c>
       <c r="H2" t="n">
-        <v>20</v>
+        <v>4983.56</v>
       </c>
     </row>
     <row r="3">
@@ -505,12 +505,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAR990</t>
+          <t>BOVAS990</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -522,13 +522,13 @@
         <v>99</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>115.01</v>
+        <v>990</v>
       </c>
     </row>
     <row r="4">
@@ -539,12 +539,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAR980</t>
+          <t>BOVAS980</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -556,13 +556,13 @@
         <v>98</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>14</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="5">
@@ -573,12 +573,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAR970</t>
+          <t>BOVAS970</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -590,13 +590,13 @@
         <v>97</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="6">
@@ -607,12 +607,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAR965</t>
+          <t>BOVAS960</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>96.5</v>
+        <v>96</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>16</v>
+        <v>189.99</v>
       </c>
     </row>
     <row r="7">
@@ -641,12 +641,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAR960</t>
+          <t>BOVAS950</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>550</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8">
@@ -675,12 +675,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAR955</t>
+          <t>BOVAS940</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>95.5</v>
+        <v>94</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H8" t="n">
-        <v>30</v>
+        <v>5597.3</v>
       </c>
     </row>
     <row r="9">
@@ -709,12 +709,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAR950</t>
+          <t>BOVAS930</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>50</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10">
@@ -743,12 +743,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAR940</t>
+          <t>BOVAS920</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>710.2</v>
       </c>
     </row>
     <row r="11">
@@ -777,12 +777,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAR930</t>
+          <t>BOVAS910</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G11" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>7286.88</v>
+        <v>900</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -488,13 +488,13 @@
         <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G2" t="n">
-        <v>203</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>4983.56</v>
+        <v>5235.68</v>
       </c>
     </row>
     <row r="3">
@@ -522,13 +522,13 @@
         <v>99</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H3" t="n">
-        <v>990</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="4">
@@ -556,13 +556,13 @@
         <v>98</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H4" t="n">
-        <v>1540</v>
+        <v>610.5</v>
       </c>
     </row>
     <row r="5">
@@ -593,10 +593,10 @@
         <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>9</v>
+        <v>3012</v>
       </c>
       <c r="H5" t="n">
-        <v>1116</v>
+        <v>2142.4</v>
       </c>
     </row>
     <row r="6">
@@ -627,10 +627,10 @@
         <v>0.03</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H6" t="n">
-        <v>189.99</v>
+        <v>2332.6</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         <v>95</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="H7" t="n">
-        <v>420</v>
+        <v>12116.16</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         <v>0.02</v>
       </c>
       <c r="G8" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>5597.3</v>
+        <v>160.4</v>
       </c>
     </row>
     <row r="9">
@@ -726,13 +726,13 @@
         <v>93</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>146</v>
+        <v>897</v>
       </c>
     </row>
     <row r="10">
@@ -763,10 +763,10 @@
         <v>0.02</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="H10" t="n">
-        <v>710.2</v>
+        <v>3940.89</v>
       </c>
     </row>
     <row r="11">
@@ -794,13 +794,13 @@
         <v>91</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="H11" t="n">
-        <v>900</v>
+        <v>486.3</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -488,13 +488,13 @@
         <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="H2" t="n">
-        <v>5235.68</v>
+        <v>4125.07</v>
       </c>
     </row>
     <row r="3">
@@ -522,13 +522,13 @@
         <v>99</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>1139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4">
@@ -556,13 +556,13 @@
         <v>98</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G4" t="n">
         <v>9</v>
       </c>
       <c r="H4" t="n">
-        <v>610.5</v>
+        <v>2540.02</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +590,13 @@
         <v>97</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>3012</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>2142.4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -624,13 +624,13 @@
         <v>96</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H6" t="n">
-        <v>2332.6</v>
+        <v>418.4</v>
       </c>
     </row>
     <row r="7">
@@ -661,10 +661,10 @@
         <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>12116.16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8">
@@ -692,13 +692,13 @@
         <v>94</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G8" t="n">
         <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>160.4</v>
+        <v>150.5</v>
       </c>
     </row>
     <row r="9">
@@ -729,10 +729,10 @@
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H9" t="n">
-        <v>897</v>
+        <v>4420.35</v>
       </c>
     </row>
     <row r="10">
@@ -760,13 +760,13 @@
         <v>92</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>3940.89</v>
+        <v>651</v>
       </c>
     </row>
     <row r="11">
@@ -797,10 +797,10 @@
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>486.3</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -491,10 +491,10 @@
         <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
-        <v>4125.07</v>
+        <v>1910.9</v>
       </c>
     </row>
     <row r="3">
@@ -525,10 +525,10 @@
         <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H3" t="n">
-        <v>132</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2540.02</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +590,13 @@
         <v>97</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>20</v>
+        <v>201.8</v>
       </c>
     </row>
     <row r="6">
@@ -624,13 +624,13 @@
         <v>96</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H6" t="n">
-        <v>418.4</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         <v>95</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H7" t="n">
-        <v>400</v>
+        <v>944.4</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="H8" t="n">
-        <v>150.5</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="9">
@@ -729,10 +729,10 @@
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>4420.35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -763,10 +763,10 @@
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>651</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAS100</t>
+          <t>BOVAS102</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>1910.9</v>
+        <v>757.7</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAS990</t>
+          <t>BOVAS100</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="H3" t="n">
-        <v>97.5</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAS980</t>
+          <t>BOVAS990</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2457</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>387.3</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAS970</t>
+          <t>BOVAS980</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F5" t="n">
         <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H5" t="n">
-        <v>201.8</v>
+        <v>1503.02</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAS960</t>
+          <t>BOVAS970</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
-        <v>1451</v>
+        <v>752</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAS950</t>
+          <t>BOVAS960</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>944.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAS940</t>
+          <t>BOVAS950</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>40.5</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAS930</t>
+          <t>BOVAS940</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="H9" t="n">
-        <v>15</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAS920</t>
+          <t>BOVAS930</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAS910</t>
+          <t>BOVAS920</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -491,10 +491,10 @@
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>757.7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -525,10 +525,10 @@
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="H3" t="n">
-        <v>2674</v>
+        <v>1221.86</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>2457</v>
+        <v>2595</v>
       </c>
       <c r="H4" t="n">
-        <v>387.3</v>
+        <v>683.3099999999999</v>
       </c>
     </row>
     <row r="5">
@@ -593,10 +593,10 @@
         <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>1503.02</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -627,10 +627,10 @@
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>752</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7">
@@ -797,10 +797,10 @@
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>2000</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -488,13 +488,13 @@
         <v>102</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -525,10 +525,10 @@
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="H3" t="n">
-        <v>1221.86</v>
+        <v>1342.73</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>2595</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>683.3099999999999</v>
+        <v>59.7</v>
       </c>
     </row>
     <row r="5">
@@ -627,10 +627,10 @@
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>300</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="7">
@@ -797,10 +797,10 @@
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAS102</t>
+          <t>BOVAS103</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>328.08</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAS100</t>
+          <t>BOVAS102</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>1342.73</v>
+        <v>523.5</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAS990</t>
+          <t>BOVAS100</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>59.7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAS980</t>
+          <t>BOVAS990</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F5" t="n">
         <v>0.01</v>
@@ -596,7 +596,7 @@
         <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>30</v>
+        <v>59.7</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAS970</t>
+          <t>BOVAS980</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>4.99</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAS960</t>
+          <t>BOVAS970</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
@@ -664,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.5</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAS950</t>
+          <t>BOVAS960</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAS940</t>
+          <t>BOVAS950</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>40.5</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAS930</t>
+          <t>BOVAS940</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="H10" t="n">
-        <v>15</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAS920</t>
+          <t>BOVAS930</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -627,10 +627,10 @@
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>30</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7">
@@ -695,10 +695,10 @@
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAS103</t>
+          <t>BOVAS104</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F2" t="n">
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>328.08</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAS102</t>
+          <t>BOVAS103</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
@@ -528,7 +528,7 @@
         <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>523.5</v>
+        <v>328.08</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAS100</t>
+          <t>BOVAS102</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F4" t="n">
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>40</v>
+        <v>523.5</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAS990</t>
+          <t>BOVAS100</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
         <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>59.7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAS980</t>
+          <t>BOVAS990</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02</v>
+        <v>59.7</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAS970</t>
+          <t>BOVAS980</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
@@ -664,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>4.99</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAS960</t>
+          <t>BOVAS970</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1000</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAS950</t>
+          <t>BOVAS960</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAS940</t>
+          <t>BOVAS950</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>40.5</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAS930</t>
+          <t>BOVAS940</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="H11" t="n">
-        <v>15</v>
+        <v>40.5</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -491,10 +491,10 @@
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>87</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3">
@@ -596,7 +596,7 @@
         <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAS104</t>
+          <t>BOVAS105</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F2" t="n">
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>200</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAS103</t>
+          <t>BOVAS104</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>328.08</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAS102</t>
+          <t>BOVAS103</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F4" t="n">
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>523.5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAS100</t>
+          <t>BOVAS102</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F5" t="n">
         <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>523.5</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAS990</t>
+          <t>BOVAS100</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>59.7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAS980</t>
+          <t>BOVAS990</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02</v>
+        <v>59.7</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAS970</t>
+          <t>BOVAS980</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
@@ -698,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>4.99</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAS960</t>
+          <t>BOVAS970</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1000</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAS950</t>
+          <t>BOVAS960</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAS940</t>
+          <t>BOVAS950</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>40.5</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAS105</t>
+          <t>BOVAS106</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F2" t="n">
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>1420</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAS104</t>
+          <t>BOVAS105</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>1000</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAS103</t>
+          <t>BOVAS104</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F4" t="n">
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>31</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAS102</t>
+          <t>BOVAS103</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F5" t="n">
         <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>523.5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAS100</t>
+          <t>BOVAS102</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>523.5</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAS990</t>
+          <t>BOVAS100</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>59.7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAS980</t>
+          <t>BOVAS990</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02</v>
+        <v>59.7</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAS970</t>
+          <t>BOVAS980</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>4.99</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAS960</t>
+          <t>BOVAS970</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1000</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAS950</t>
+          <t>BOVAS960</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -525,10 +525,10 @@
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1420</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="4">
@@ -593,10 +593,10 @@
         <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -661,10 +661,10 @@
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -491,10 +491,10 @@
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -525,10 +525,10 @@
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H3" t="n">
-        <v>12.5</v>
+        <v>2760.9</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>1000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -491,10 +491,10 @@
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAS106</t>
+          <t>BOVAS105</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F2" t="n">
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAS105</t>
+          <t>BOVAS104</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>2760.9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAS104</t>
+          <t>BOVAS103</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F4" t="n">
         <v>0.01</v>
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAS103</t>
+          <t>BOVAS102</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F5" t="n">
         <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAS102</t>
+          <t>BOVAS100</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>523.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAS100</t>
+          <t>BOVAS990</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2</v>
+        <v>59.7</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAS990</t>
+          <t>BOVAS980</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>59.7</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAS980</t>
+          <t>BOVAS970</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAS970</t>
+          <t>BOVAS960</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>4.99</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAS960</t>
+          <t>BOVAS950</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -471,12 +471,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAS105</t>
+          <t>BOVAT105</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -488,13 +488,13 @@
         <v>105</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>25</v>
+        <v>10050</v>
       </c>
     </row>
     <row r="3">
@@ -505,12 +505,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAS104</t>
+          <t>BOVAT103</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -522,13 +522,13 @@
         <v>104</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H3" t="n">
-        <v>60</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="4">
@@ -539,12 +539,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAS103</t>
+          <t>BOVAT300</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -556,13 +556,13 @@
         <v>103</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>2658.2</v>
       </c>
     </row>
     <row r="5">
@@ -573,12 +573,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAS102</t>
+          <t>BOVAT102</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -590,13 +590,13 @@
         <v>102</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G5" t="n">
         <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>4.5</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="6">
@@ -607,12 +607,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAS100</t>
+          <t>BOVAT100</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -624,13 +624,13 @@
         <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="7">
@@ -641,12 +641,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAS990</t>
+          <t>BOVAT990</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -658,13 +658,13 @@
         <v>99</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>59.7</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
@@ -675,12 +675,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAS980</t>
+          <t>BOVAT980</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -692,13 +692,13 @@
         <v>98</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -709,12 +709,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAS970</t>
+          <t>BOVAT970</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -729,10 +729,10 @@
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H9" t="n">
-        <v>4.99</v>
+        <v>700</v>
       </c>
     </row>
     <row r="10">
@@ -743,12 +743,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAS960</t>
+          <t>BOVAT960</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -763,10 +763,10 @@
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="H10" t="n">
-        <v>1000</v>
+        <v>5773.51</v>
       </c>
     </row>
     <row r="11">
@@ -777,12 +777,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAS950</t>
+          <t>BOVAT950</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -797,10 +797,10 @@
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -488,13 +488,13 @@
         <v>105</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>10050</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="3">
@@ -525,10 +525,10 @@
         <v>0.03</v>
       </c>
       <c r="G3" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>4092</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4">
@@ -556,13 +556,13 @@
         <v>103</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>2658.2</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +596,7 @@
         <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>1100</v>
+        <v>44.2</v>
       </c>
     </row>
     <row r="6">
@@ -627,10 +627,10 @@
         <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H6" t="n">
-        <v>2620</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7">
@@ -661,10 +661,10 @@
         <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -692,13 +692,13 @@
         <v>98</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>40</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9">
@@ -732,7 +732,7 @@
         <v>14</v>
       </c>
       <c r="H9" t="n">
-        <v>700</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="10">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAT105</t>
+          <t>BOVAT103</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" t="n">
         <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H2" t="n">
-        <v>2654</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAT103</t>
+          <t>BOVAT300</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F3" t="n">
         <v>0.03</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="H3" t="n">
-        <v>222</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAT300</t>
+          <t>BOVAT102</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4" t="n">
         <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>1080</v>
+        <v>44.2</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAT102</t>
+          <t>BOVAT100</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
         <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="H5" t="n">
-        <v>44.2</v>
+        <v>313.6</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAT100</t>
+          <t>BOVAT990</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" t="n">
         <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H6" t="n">
-        <v>336</v>
+        <v>235.04</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAT990</t>
+          <t>BOVAT980</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAT980</t>
+          <t>BOVAT970</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAT970</t>
+          <t>BOVAT960</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H9" t="n">
-        <v>1299</v>
+        <v>1328.1</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAT960</t>
+          <t>BOVAT950</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>5773.51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAT950</t>
+          <t>BOVAT940</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -491,10 +491,10 @@
         <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="H2" t="n">
-        <v>3489</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="3">
@@ -525,10 +525,10 @@
         <v>0.03</v>
       </c>
       <c r="G3" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>600</v>
+        <v>708</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="H4" t="n">
-        <v>44.2</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +590,13 @@
         <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H5" t="n">
-        <v>313.6</v>
+        <v>4838.39</v>
       </c>
     </row>
     <row r="6">
@@ -627,10 +627,10 @@
         <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H6" t="n">
-        <v>235.04</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         <v>98</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>50</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -729,10 +729,10 @@
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>1328.1</v>
+        <v>79.59999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -763,10 +763,10 @@
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -491,10 +491,10 @@
         <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>3025</v>
+        <v>498.96</v>
       </c>
     </row>
     <row r="3">
@@ -522,13 +522,13 @@
         <v>103</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>708</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H4" t="n">
-        <v>4003</v>
+        <v>2346.02</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +590,13 @@
         <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H5" t="n">
-        <v>4838.39</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6">
@@ -627,10 +627,10 @@
         <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H6" t="n">
-        <v>19.96</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         <v>98</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>60</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9">
@@ -729,10 +729,10 @@
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>79.59999999999999</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10">
@@ -766,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>30</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="11">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAT103</t>
+          <t>BOVAT105</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="n">
-        <v>498.96</v>
+        <v>813.6</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAT300</t>
+          <t>BOVAT103</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F3" t="n">
         <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>100</v>
+        <v>560.9</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAT102</t>
+          <t>BOVAT300</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F4" t="n">
         <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>2346.02</v>
+        <v>624</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAT100</t>
+          <t>BOVAT102</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F5" t="n">
         <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>255</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAT990</t>
+          <t>BOVAT100</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
+        <v>1265</v>
       </c>
       <c r="H6" t="n">
-        <v>34</v>
+        <v>2674.23</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAT980</t>
+          <t>BOVAT990</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>80</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAT970</t>
+          <t>BOVAT980</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="H8" t="n">
-        <v>470</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAT960</t>
+          <t>BOVAT970</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>200</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAT950</t>
+          <t>BOVAT960</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>0.08</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAT940</t>
+          <t>BOVAT950</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>150</v>
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAT105</t>
+          <t>BOVAT103</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" t="n">
         <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>813.6</v>
+        <v>72.8</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAT103</t>
+          <t>BOVAT300</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F3" t="n">
         <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>560.9</v>
+        <v>624</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAT300</t>
+          <t>BOVAT102</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H4" t="n">
-        <v>624</v>
+        <v>1571.06</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAT102</t>
+          <t>BOVAT100</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H5" t="n">
-        <v>50</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAT100</t>
+          <t>BOVAT990</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>1265</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>2674.23</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAT990</t>
+          <t>BOVAT980</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="H7" t="n">
-        <v>3.75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAT980</t>
+          <t>BOVAT970</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>25</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAT970</t>
+          <t>BOVAT960</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>470</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAT960</t>
+          <t>BOVAT950</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>200</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAT950</t>
+          <t>BOVAT940</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.08</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -525,10 +525,10 @@
         <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>624</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>1571.06</v>
+        <v>70.51000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -593,10 +593,10 @@
         <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>235</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -627,10 +627,10 @@
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAT103</t>
+          <t>BOVAT105</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>72.8</v>
+        <v>1880.13</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAT300</t>
+          <t>BOVAT103</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F3" t="n">
         <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H3" t="n">
-        <v>214</v>
+        <v>72.8</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAT102</t>
+          <t>BOVAT300</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F4" t="n">
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H4" t="n">
-        <v>70.51000000000001</v>
+        <v>2398.01</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAT100</t>
+          <t>BOVAT102</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F5" t="n">
         <v>0.01</v>
@@ -596,7 +596,7 @@
         <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>50</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAT990</t>
+          <t>BOVAT100</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAT980</t>
+          <t>BOVAT990</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAT970</t>
+          <t>BOVAT980</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="H8" t="n">
-        <v>470</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAT960</t>
+          <t>BOVAT970</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>200</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAT950</t>
+          <t>BOVAT960</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>0.08</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAT940</t>
+          <t>BOVAT950</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H11" t="n">
-        <v>150</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -491,10 +491,10 @@
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="H2" t="n">
-        <v>1880.13</v>
+        <v>5183.82</v>
       </c>
     </row>
     <row r="3">
@@ -522,13 +522,13 @@
         <v>104</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H3" t="n">
-        <v>72.8</v>
+        <v>3740.22</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>2398.01</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5">
@@ -593,10 +593,10 @@
         <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>370</v>
+        <v>664.5599999999999</v>
       </c>
     </row>
     <row r="6">
@@ -627,10 +627,10 @@
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H6" t="n">
-        <v>1200</v>
+        <v>1390.01</v>
       </c>
     </row>
     <row r="7">
@@ -661,7 +661,7 @@
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -797,10 +797,10 @@
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H11" t="n">
-        <v>2000</v>
+        <v>8700</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAT105</t>
+          <t>BOVAT103</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="H2" t="n">
-        <v>5183.82</v>
+        <v>2460.67</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAT103</t>
+          <t>BOVAT300</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="H3" t="n">
-        <v>3740.22</v>
+        <v>8665.719999999999</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAT300</t>
+          <t>BOVAT102</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H4" t="n">
-        <v>253</v>
+        <v>2889.99</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAT102</t>
+          <t>BOVAT100</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H5" t="n">
-        <v>664.5599999999999</v>
+        <v>790</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAT100</t>
+          <t>BOVAT990</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H6" t="n">
-        <v>1390.01</v>
+        <v>1282.56</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAT990</t>
+          <t>BOVAT980</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>155.01</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAT980</t>
+          <t>BOVAT970</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAT970</t>
+          <t>BOVAT960</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H9" t="n">
-        <v>470</v>
+        <v>857.45</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAT960</t>
+          <t>BOVAT950</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
@@ -766,7 +766,7 @@
         <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAT950</t>
+          <t>BOVAT940</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
-        <v>8700</v>
+        <v>900</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAT103</t>
+          <t>BOVAT300</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="G2" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H2" t="n">
-        <v>2460.67</v>
+        <v>31994.37</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAT300</t>
+          <t>BOVAT102</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="G3" t="n">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="H3" t="n">
-        <v>8665.719999999999</v>
+        <v>17447.97</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAT102</t>
+          <t>BOVAT100</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="H4" t="n">
-        <v>2889.99</v>
+        <v>23691.63</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAT100</t>
+          <t>BOVAT990</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="G5" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="H5" t="n">
-        <v>790</v>
+        <v>5847.6</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAT990</t>
+          <t>BOVAT980</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="G6" t="n">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="H6" t="n">
-        <v>1282.56</v>
+        <v>2457.65</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAT980</t>
+          <t>BOVAT970</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="G7" t="n">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="H7" t="n">
-        <v>155.01</v>
+        <v>3739.55</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAT970</t>
+          <t>BOVAT960</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>2193.43</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAT960</t>
+          <t>BOVAT950</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="G9" t="n">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="H9" t="n">
-        <v>857.45</v>
+        <v>21581.09</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAT950</t>
+          <t>BOVAT940</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="H10" t="n">
-        <v>400</v>
+        <v>3091.18</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAT940</t>
+          <t>BOVAT930</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="G11" t="n">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="H11" t="n">
-        <v>900</v>
+        <v>4350.06</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAT300</t>
+          <t>BOVAT103</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="H2" t="n">
-        <v>31994.37</v>
+        <v>2326.44</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAT102</t>
+          <t>BOVAT300</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="H3" t="n">
-        <v>17447.97</v>
+        <v>456.18</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAT100</t>
+          <t>BOVAT102</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="H4" t="n">
-        <v>23691.63</v>
+        <v>2210.55</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAT990</t>
+          <t>BOVAT100</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H5" t="n">
-        <v>5847.6</v>
+        <v>813.5</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAT980</t>
+          <t>BOVAT990</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="H6" t="n">
-        <v>2457.65</v>
+        <v>3958.3</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAT970</t>
+          <t>BOVAT980</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="H7" t="n">
-        <v>3739.55</v>
+        <v>177.32</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAT960</t>
+          <t>BOVAT970</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="G8" t="n">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="H8" t="n">
-        <v>2193.43</v>
+        <v>4140.52</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAT950</t>
+          <t>BOVAT960</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="G9" t="n">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="H9" t="n">
-        <v>21581.09</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAT940</t>
+          <t>BOVAT950</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="H10" t="n">
-        <v>3091.18</v>
+        <v>1386.47</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAT930</t>
+          <t>BOVAT940</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="H11" t="n">
-        <v>4350.06</v>
+        <v>2305.96</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAT103</t>
+          <t>BOVAT105</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>217</v>
+        <v>26</v>
       </c>
       <c r="H2" t="n">
-        <v>2326.44</v>
+        <v>3551.79</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAT300</t>
+          <t>BOVAT103</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="G3" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H3" t="n">
-        <v>456.18</v>
+        <v>111.27</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAT102</t>
+          <t>BOVAT300</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G4" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="H4" t="n">
-        <v>2210.55</v>
+        <v>298.5</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAT100</t>
+          <t>BOVAT102</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="G5" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
-        <v>813.5</v>
+        <v>532.5</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAT990</t>
+          <t>BOVAT100</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
         <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>27</v>
+        <v>326</v>
       </c>
       <c r="H6" t="n">
-        <v>3958.3</v>
+        <v>451.51</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAT980</t>
+          <t>BOVAT990</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H7" t="n">
-        <v>177.32</v>
+        <v>1340.99</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAT970</t>
+          <t>BOVAT980</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G8" t="n">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="H8" t="n">
-        <v>4140.52</v>
+        <v>1214.45</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAT960</t>
+          <t>BOVAT970</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F9" t="n">
         <v>0.02</v>
       </c>
       <c r="G9" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H9" t="n">
-        <v>160</v>
+        <v>1554.95</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAT950</t>
+          <t>BOVAT960</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G10" t="n">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="H10" t="n">
-        <v>1386.47</v>
+        <v>535.01</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAT940</t>
+          <t>BOVAT950</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G11" t="n">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="H11" t="n">
-        <v>2305.96</v>
+        <v>198.5</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAT105</t>
+          <t>BOVAT106</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F2" t="n">
         <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>3551.79</v>
+        <v>355.91</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAT103</t>
+          <t>BOVAT105</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>111.27</v>
+        <v>641.02</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAT300</t>
+          <t>BOVAT103</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>298.5</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAT102</t>
+          <t>BOVAT300</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H5" t="n">
-        <v>532.5</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAT100</t>
+          <t>BOVAT102</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F6" t="n">
         <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>326</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>451.51</v>
+        <v>6.28</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAT990</t>
+          <t>BOVAT100</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>1340.99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAT980</t>
+          <t>BOVAT990</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="H8" t="n">
-        <v>1214.45</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAT970</t>
+          <t>BOVAT980</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H9" t="n">
-        <v>1554.95</v>
+        <v>350.02</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAT960</t>
+          <t>BOVAT970</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F10" t="n">
         <v>0.02</v>
       </c>
       <c r="G10" t="n">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="H10" t="n">
-        <v>535.01</v>
+        <v>497.5</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAT950</t>
+          <t>BOVAT960</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>198.5</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAT106</t>
+          <t>BOVAT1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="H2" t="n">
-        <v>355.91</v>
+        <v>13535.84</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAT105</t>
+          <t>BOVAT107</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="H3" t="n">
-        <v>641.02</v>
+        <v>1029.87</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAT103</t>
+          <t>BOVAT106</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="H4" t="n">
-        <v>94</v>
+        <v>16081.01</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAT300</t>
+          <t>BOVAT105</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H5" t="n">
-        <v>363</v>
+        <v>891.33</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAT102</t>
+          <t>BOVAT103</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="H6" t="n">
-        <v>6.28</v>
+        <v>122.51</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAT100</t>
+          <t>BOVAT300</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>12</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAT990</t>
+          <t>BOVAT102</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="H8" t="n">
-        <v>242</v>
+        <v>1157.61</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAT980</t>
+          <t>BOVAT100</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="H9" t="n">
-        <v>350.02</v>
+        <v>2657.98</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAT970</t>
+          <t>BOVAT990</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>497.5</v>
+        <v>110.01</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAT960</t>
+          <t>BOVAT980</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>25</v>
+        <v>13.76</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -491,10 +491,10 @@
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>92</v>
+        <v>500</v>
       </c>
       <c r="H2" t="n">
-        <v>13535.84</v>
+        <v>730.83</v>
       </c>
     </row>
     <row r="3">
@@ -525,10 +525,10 @@
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>48</v>
+        <v>2505</v>
       </c>
       <c r="H3" t="n">
-        <v>1029.87</v>
+        <v>250.87</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>16081.01</v>
+        <v>175.62</v>
       </c>
     </row>
     <row r="5">
@@ -593,10 +593,10 @@
         <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>46</v>
+        <v>195</v>
       </c>
       <c r="H5" t="n">
-        <v>891.33</v>
+        <v>22.17</v>
       </c>
     </row>
     <row r="6">
@@ -627,10 +627,10 @@
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="H6" t="n">
-        <v>122.51</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7">
@@ -661,10 +661,10 @@
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>1157.61</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="9">
@@ -729,10 +729,10 @@
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>2657.98</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="10">
@@ -797,10 +797,10 @@
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>13.76</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAT1</t>
+          <t>BOVAT108</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F2" t="n">
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>730.83</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAT107</t>
+          <t>BOVAT1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>2505</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>250.87</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAT106</t>
+          <t>BOVAT107</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F4" t="n">
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>2505</v>
       </c>
       <c r="H4" t="n">
-        <v>175.62</v>
+        <v>250.87</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAT105</t>
+          <t>BOVAT106</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F5" t="n">
         <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>195</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>22.17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAT103</t>
+          <t>BOVAT105</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>300</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAT300</t>
+          <t>BOVAT103</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,13 +655,13 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H7" t="n">
         <v>300</v>
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAT102</t>
+          <t>BOVAT300</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>9.25</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAT100</t>
+          <t>BOVAT102</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>3.06</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAT990</t>
+          <t>BOVAT100</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>110.01</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAT980</t>
+          <t>BOVAT990</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>110.01</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAT108</t>
+          <t>BOVAT110</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F2" t="n">
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>83</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAT1</t>
+          <t>BOVAT108</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
@@ -528,7 +528,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.11</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAT107</t>
+          <t>BOVAT1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F4" t="n">
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>2505</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>250.87</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAT106</t>
+          <t>BOVAT107</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F5" t="n">
         <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2505</v>
       </c>
       <c r="H5" t="n">
-        <v>18</v>
+        <v>250.87</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAT105</t>
+          <t>BOVAT106</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAT103</t>
+          <t>BOVAT105</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>216</v>
       </c>
       <c r="H7" t="n">
-        <v>300</v>
+        <v>25.59</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAT300</t>
+          <t>BOVAT103</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAT102</t>
+          <t>BOVAT300</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>9.25</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAT100</t>
+          <t>BOVAT102</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAT990</t>
+          <t>BOVAT100</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
-        <v>110.01</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -471,12 +471,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAT110</t>
+          <t>BOVAU110</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -488,13 +488,13 @@
         <v>110</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="G2" t="n">
-        <v>17</v>
+        <v>1708</v>
       </c>
       <c r="H2" t="n">
-        <v>12.24</v>
+        <v>70289.73</v>
       </c>
     </row>
     <row r="3">
@@ -505,12 +505,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAT108</t>
+          <t>BOVAU109</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -522,13 +522,13 @@
         <v>109</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>1377</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9399999999999999</v>
+        <v>17047.25</v>
       </c>
     </row>
     <row r="4">
@@ -539,12 +539,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAT1</t>
+          <t>BOVAU108</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -556,13 +556,13 @@
         <v>108</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>1406</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9399999999999999</v>
+        <v>21727.04</v>
       </c>
     </row>
     <row r="5">
@@ -573,12 +573,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAT107</t>
+          <t>BOVAU107</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -590,13 +590,13 @@
         <v>107</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="G5" t="n">
-        <v>2505</v>
+        <v>1701</v>
       </c>
       <c r="H5" t="n">
-        <v>250.87</v>
+        <v>24845.09</v>
       </c>
     </row>
     <row r="6">
@@ -607,12 +607,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAT106</t>
+          <t>BOVAU106</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -624,13 +624,13 @@
         <v>106</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="H6" t="n">
-        <v>18</v>
+        <v>2353.37</v>
       </c>
     </row>
     <row r="7">
@@ -641,12 +641,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAT105</t>
+          <t>BOVAU105</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -658,13 +658,13 @@
         <v>105</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>216</v>
+        <v>46</v>
       </c>
       <c r="H7" t="n">
-        <v>25.59</v>
+        <v>9036.17</v>
       </c>
     </row>
     <row r="8">
@@ -675,12 +675,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAT103</t>
+          <t>BOVAU104</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -692,13 +692,13 @@
         <v>104</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>466.61</v>
       </c>
     </row>
     <row r="9">
@@ -709,12 +709,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAT300</t>
+          <t>BOVAU103</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -726,13 +726,13 @@
         <v>103</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9399999999999999</v>
+        <v>4714.54</v>
       </c>
     </row>
     <row r="10">
@@ -743,12 +743,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAT102</t>
+          <t>BOVAU102</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -760,13 +760,13 @@
         <v>102</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="H10" t="n">
-        <v>1.33</v>
+        <v>3096.87</v>
       </c>
     </row>
     <row r="11">
@@ -777,12 +777,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAT100</t>
+          <t>BOVAU100</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -794,13 +794,13 @@
         <v>100</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="G11" t="n">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>36702.12</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -488,13 +488,13 @@
         <v>110</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="G2" t="n">
-        <v>1708</v>
+        <v>76</v>
       </c>
       <c r="H2" t="n">
-        <v>70289.73</v>
+        <v>20392.62</v>
       </c>
     </row>
     <row r="3">
@@ -522,13 +522,13 @@
         <v>109</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="G3" t="n">
-        <v>1377</v>
+        <v>22</v>
       </c>
       <c r="H3" t="n">
-        <v>17047.25</v>
+        <v>9381.110000000001</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         <v>0.09</v>
       </c>
       <c r="G4" t="n">
-        <v>1406</v>
+        <v>28</v>
       </c>
       <c r="H4" t="n">
-        <v>21727.04</v>
+        <v>13432.85</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +590,13 @@
         <v>107</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="G5" t="n">
-        <v>1701</v>
+        <v>29</v>
       </c>
       <c r="H5" t="n">
-        <v>24845.09</v>
+        <v>2827.58</v>
       </c>
     </row>
     <row r="6">
@@ -624,13 +624,13 @@
         <v>106</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G6" t="n">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="H6" t="n">
-        <v>2353.37</v>
+        <v>2029.7</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         <v>105</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G7" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H7" t="n">
-        <v>9036.17</v>
+        <v>3440.24</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H8" t="n">
-        <v>466.61</v>
+        <v>2333.97</v>
       </c>
     </row>
     <row r="9">
@@ -729,10 +729,10 @@
         <v>0.06</v>
       </c>
       <c r="G9" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" t="n">
-        <v>4714.54</v>
+        <v>10900.18</v>
       </c>
     </row>
     <row r="10">
@@ -763,10 +763,10 @@
         <v>0.06</v>
       </c>
       <c r="G10" t="n">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="H10" t="n">
-        <v>3096.87</v>
+        <v>2041.8</v>
       </c>
     </row>
     <row r="11">
@@ -794,13 +794,13 @@
         <v>100</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G11" t="n">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="H11" t="n">
-        <v>36702.12</v>
+        <v>5198.85</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAU110</t>
+          <t>BOVAU112</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F2" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="G2" t="n">
-        <v>76</v>
+        <v>1593</v>
       </c>
       <c r="H2" t="n">
-        <v>20392.62</v>
+        <v>16895.11</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAU109</t>
+          <t>BOVAU111</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F3" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="H3" t="n">
-        <v>9381.110000000001</v>
+        <v>5165.87</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAU108</t>
+          <t>BOVAU110</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="H4" t="n">
-        <v>13432.85</v>
+        <v>24710.15</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAU107</t>
+          <t>BOVAU109</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="G5" t="n">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="H5" t="n">
-        <v>2827.58</v>
+        <v>30166.3</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAU106</t>
+          <t>BOVAU108</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="G6" t="n">
-        <v>59</v>
+        <v>1600</v>
       </c>
       <c r="H6" t="n">
-        <v>2029.7</v>
+        <v>37613.28</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAU105</t>
+          <t>BOVAU107</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="G7" t="n">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="H7" t="n">
-        <v>3440.24</v>
+        <v>58561.88</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAU104</t>
+          <t>BOVAU106</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="G8" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H8" t="n">
-        <v>2333.97</v>
+        <v>1350.4</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAU103</t>
+          <t>BOVAU105</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="G9" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="H9" t="n">
-        <v>10900.18</v>
+        <v>15825.67</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAU102</t>
+          <t>BOVAU104</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="G10" t="n">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="H10" t="n">
-        <v>2041.8</v>
+        <v>6486.27</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAU100</t>
+          <t>BOVAU103</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="G11" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="H11" t="n">
-        <v>5198.85</v>
+        <v>6317.2</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -491,10 +491,10 @@
         <v>0.08</v>
       </c>
       <c r="G2" t="n">
-        <v>1593</v>
+        <v>665</v>
       </c>
       <c r="H2" t="n">
-        <v>16895.11</v>
+        <v>31176.24</v>
       </c>
     </row>
     <row r="3">
@@ -525,10 +525,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>5165.87</v>
+        <v>2583.81</v>
       </c>
     </row>
     <row r="4">
@@ -556,13 +556,13 @@
         <v>110</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="G4" t="n">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="H4" t="n">
-        <v>24710.15</v>
+        <v>10033.31</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +590,13 @@
         <v>109</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G5" t="n">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="H5" t="n">
-        <v>30166.3</v>
+        <v>4975.46</v>
       </c>
     </row>
     <row r="6">
@@ -627,10 +627,10 @@
         <v>0.04</v>
       </c>
       <c r="G6" t="n">
-        <v>1600</v>
+        <v>844</v>
       </c>
       <c r="H6" t="n">
-        <v>37613.28</v>
+        <v>4287.6</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         <v>107</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G7" t="n">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="H7" t="n">
-        <v>58561.88</v>
+        <v>9651.6</v>
       </c>
     </row>
     <row r="8">
@@ -692,13 +692,13 @@
         <v>106</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G8" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H8" t="n">
-        <v>1350.4</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9">
@@ -726,13 +726,13 @@
         <v>105</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G9" t="n">
-        <v>49</v>
+        <v>161</v>
       </c>
       <c r="H9" t="n">
-        <v>15825.67</v>
+        <v>1292.92</v>
       </c>
     </row>
     <row r="10">
@@ -763,10 +763,10 @@
         <v>0.04</v>
       </c>
       <c r="G10" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="H10" t="n">
-        <v>6486.27</v>
+        <v>10267.53</v>
       </c>
     </row>
     <row r="11">
@@ -794,13 +794,13 @@
         <v>103</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G11" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>6317.2</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -488,13 +488,13 @@
         <v>112</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>665</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>31176.24</v>
+        <v>5329.12</v>
       </c>
     </row>
     <row r="3">
@@ -522,13 +522,13 @@
         <v>111</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>371</v>
       </c>
       <c r="H3" t="n">
-        <v>2583.81</v>
+        <v>31086.12</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         <v>0.06</v>
       </c>
       <c r="G4" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H4" t="n">
-        <v>10033.31</v>
+        <v>6619.54</v>
       </c>
     </row>
     <row r="5">
@@ -593,10 +593,10 @@
         <v>0.05</v>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H5" t="n">
-        <v>4975.46</v>
+        <v>687.25</v>
       </c>
     </row>
     <row r="6">
@@ -624,13 +624,13 @@
         <v>108</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G6" t="n">
-        <v>844</v>
+        <v>22</v>
       </c>
       <c r="H6" t="n">
-        <v>4287.6</v>
+        <v>2577.9</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         <v>107</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G7" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>9651.6</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         <v>0.04</v>
       </c>
       <c r="G8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H8" t="n">
-        <v>312</v>
+        <v>520.0599999999999</v>
       </c>
     </row>
     <row r="9">
@@ -726,13 +726,13 @@
         <v>105</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G9" t="n">
-        <v>161</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>1292.92</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10">
@@ -763,10 +763,10 @@
         <v>0.04</v>
       </c>
       <c r="G10" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>10267.53</v>
+        <v>150.04</v>
       </c>
     </row>
     <row r="11">
@@ -794,13 +794,13 @@
         <v>103</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3</v>
+        <v>334.5</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAU112</t>
+          <t>BOVAU111</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="G2" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>5329.12</v>
+        <v>5715</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAU111</t>
+          <t>BOVAU110</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="G3" t="n">
-        <v>371</v>
+        <v>18</v>
       </c>
       <c r="H3" t="n">
-        <v>31086.12</v>
+        <v>3960.48</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAU110</t>
+          <t>BOVAU109</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G4" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>6619.54</v>
+        <v>1679.36</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAU109</t>
+          <t>BOVAU108</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H5" t="n">
-        <v>687.25</v>
+        <v>6525.57</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAU108</t>
+          <t>BOVAU107</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G6" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H6" t="n">
-        <v>2577.9</v>
+        <v>156.42</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAU107</t>
+          <t>BOVAU106</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>6.2</v>
+        <v>9580</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAU106</t>
+          <t>BOVAU105</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H8" t="n">
-        <v>520.0599999999999</v>
+        <v>10401.1</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAU105</t>
+          <t>BOVAU104</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>412</v>
+        <v>8450.17</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAU104</t>
+          <t>BOVAU103</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H10" t="n">
-        <v>150.04</v>
+        <v>2740.05</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAU103</t>
+          <t>BOVAU102</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H11" t="n">
-        <v>334.5</v>
+        <v>3720.23</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAU111</t>
+          <t>BOVAU112</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H2" t="n">
-        <v>5715</v>
+        <v>9151</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAU110</t>
+          <t>BOVAU111</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" t="n">
-        <v>3960.48</v>
+        <v>3608.48</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAU109</t>
+          <t>BOVAU110</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="H4" t="n">
-        <v>1679.36</v>
+        <v>3236.49</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAU108</t>
+          <t>BOVAU109</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F5" t="n">
         <v>0.06</v>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>6525.57</v>
+        <v>642</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAU107</t>
+          <t>BOVAU108</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G6" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H6" t="n">
-        <v>156.42</v>
+        <v>808.29</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAU106</t>
+          <t>BOVAU107</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H7" t="n">
-        <v>9580</v>
+        <v>280.4</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAU105</t>
+          <t>BOVAU106</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
-        <v>10401.1</v>
+        <v>440.3</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAU104</t>
+          <t>BOVAU105</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H9" t="n">
-        <v>8450.17</v>
+        <v>1589.2</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAU103</t>
+          <t>BOVAU104</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H10" t="n">
-        <v>2740.05</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAU102</t>
+          <t>BOVAU103</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>3720.23</v>
+        <v>3182</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAU112</t>
+          <t>BOVAU113</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="G2" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="H2" t="n">
-        <v>9151</v>
+        <v>11083.66</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAU111</t>
+          <t>BOVAU112</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>16</v>
+        <v>594</v>
       </c>
       <c r="H3" t="n">
-        <v>3608.48</v>
+        <v>1616.59</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAU110</t>
+          <t>BOVAU111</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F4" t="n">
         <v>0.06</v>
       </c>
       <c r="G4" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="H4" t="n">
-        <v>3236.49</v>
+        <v>1552.56</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAU109</t>
+          <t>BOVAU110</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="H5" t="n">
-        <v>642</v>
+        <v>1430.65</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAU108</t>
+          <t>BOVAU109</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F6" t="n">
         <v>0.05</v>
@@ -630,7 +630,7 @@
         <v>24</v>
       </c>
       <c r="H6" t="n">
-        <v>808.29</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAU107</t>
+          <t>BOVAU108</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F7" t="n">
         <v>0.04</v>
       </c>
       <c r="G7" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H7" t="n">
-        <v>280.4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAU106</t>
+          <t>BOVAU107</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H8" t="n">
-        <v>440.3</v>
+        <v>651.83</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAU105</t>
+          <t>BOVAU106</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F9" t="n">
         <v>0.04</v>
       </c>
       <c r="G9" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>1589.2</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAU104</t>
+          <t>BOVAU105</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F10" t="n">
         <v>0.03</v>
       </c>
       <c r="G10" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H10" t="n">
-        <v>3.47</v>
+        <v>8067.08</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAU103</t>
+          <t>BOVAU104</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F11" t="n">
         <v>0.03</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H11" t="n">
-        <v>3182</v>
+        <v>7209.09</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -488,13 +488,13 @@
         <v>113</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="G2" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="H2" t="n">
-        <v>11083.66</v>
+        <v>1154.8</v>
       </c>
     </row>
     <row r="3">
@@ -525,10 +525,10 @@
         <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>594</v>
+        <v>18</v>
       </c>
       <c r="H3" t="n">
-        <v>1616.59</v>
+        <v>2255.26</v>
       </c>
     </row>
     <row r="4">
@@ -556,13 +556,13 @@
         <v>111</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="G4" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H4" t="n">
-        <v>1552.56</v>
+        <v>1502.84</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +590,13 @@
         <v>110</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" t="n">
-        <v>1430.65</v>
+        <v>5354.9</v>
       </c>
     </row>
     <row r="6">
@@ -624,13 +624,13 @@
         <v>109</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G6" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H6" t="n">
-        <v>3160</v>
+        <v>80.05</v>
       </c>
     </row>
     <row r="7">
@@ -661,10 +661,10 @@
         <v>0.04</v>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H7" t="n">
-        <v>19</v>
+        <v>825.25</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         <v>0.03</v>
       </c>
       <c r="G8" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>651.83</v>
+        <v>72.02</v>
       </c>
     </row>
     <row r="9">
@@ -726,13 +726,13 @@
         <v>106</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H9" t="n">
-        <v>204</v>
+        <v>128.06</v>
       </c>
     </row>
     <row r="10">
@@ -760,13 +760,13 @@
         <v>105</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G10" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H10" t="n">
-        <v>8067.08</v>
+        <v>218.53</v>
       </c>
     </row>
     <row r="11">
@@ -794,13 +794,13 @@
         <v>104</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G11" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>7209.09</v>
+        <v>4.03</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -488,13 +488,13 @@
         <v>113</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G2" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H2" t="n">
-        <v>1154.8</v>
+        <v>436.35</v>
       </c>
     </row>
     <row r="3">
@@ -525,10 +525,10 @@
         <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>18</v>
+        <v>837</v>
       </c>
       <c r="H3" t="n">
-        <v>2255.26</v>
+        <v>618.86</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         <v>0.04</v>
       </c>
       <c r="G4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H4" t="n">
-        <v>1502.84</v>
+        <v>2720.36</v>
       </c>
     </row>
     <row r="5">
@@ -593,10 +593,10 @@
         <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="H5" t="n">
-        <v>5354.9</v>
+        <v>11898.68</v>
       </c>
     </row>
     <row r="6">
@@ -627,10 +627,10 @@
         <v>0.03</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>80.05</v>
+        <v>46.31</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         <v>108</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H7" t="n">
-        <v>825.25</v>
+        <v>1540.95</v>
       </c>
     </row>
     <row r="8">
@@ -692,13 +692,13 @@
         <v>107</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H8" t="n">
-        <v>72.02</v>
+        <v>150.24</v>
       </c>
     </row>
     <row r="9">
@@ -726,13 +726,13 @@
         <v>106</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>128.06</v>
+        <v>124.47</v>
       </c>
     </row>
     <row r="10">
@@ -760,13 +760,13 @@
         <v>105</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>218.53</v>
+        <v>21.15</v>
       </c>
     </row>
     <row r="11">
@@ -797,10 +797,10 @@
         <v>0.02</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H11" t="n">
-        <v>4.03</v>
+        <v>1123.64</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAU113</t>
+          <t>BOVAU112</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G2" t="n">
-        <v>18</v>
+        <v>206</v>
       </c>
       <c r="H2" t="n">
-        <v>436.35</v>
+        <v>5777.26</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAU112</t>
+          <t>BOVAU111</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G3" t="n">
-        <v>837</v>
+        <v>9</v>
       </c>
       <c r="H3" t="n">
-        <v>618.86</v>
+        <v>875</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAU111</t>
+          <t>BOVAU110</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G4" t="n">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="H4" t="n">
-        <v>2720.36</v>
+        <v>9342</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAU110</t>
+          <t>BOVAU109</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F5" t="n">
         <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="H5" t="n">
-        <v>11898.68</v>
+        <v>382.64</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAU109</t>
+          <t>BOVAU108</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F6" t="n">
         <v>0.03</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>754</v>
       </c>
       <c r="H6" t="n">
-        <v>46.31</v>
+        <v>284.33</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAU108</t>
+          <t>BOVAU107</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F7" t="n">
         <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H7" t="n">
-        <v>1540.95</v>
+        <v>172.88</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAU107</t>
+          <t>BOVAU106</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F8" t="n">
         <v>0.02</v>
       </c>
       <c r="G8" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H8" t="n">
-        <v>150.24</v>
+        <v>926.02</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAU106</t>
+          <t>BOVAU105</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G9" t="n">
         <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>124.47</v>
+        <v>281.17</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAU105</t>
+          <t>BOVAU104</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
@@ -766,7 +766,7 @@
         <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>21.15</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAU104</t>
+          <t>BOVAU103</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>1123.64</v>
+        <v>57.01</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -488,13 +488,13 @@
         <v>112</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G2" t="n">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="H2" t="n">
-        <v>5777.26</v>
+        <v>7662.2</v>
       </c>
     </row>
     <row r="3">
@@ -522,13 +522,13 @@
         <v>111</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G3" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>875</v>
+        <v>4008.4</v>
       </c>
     </row>
     <row r="4">
@@ -556,13 +556,13 @@
         <v>110</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G4" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H4" t="n">
-        <v>9342</v>
+        <v>17937.53</v>
       </c>
     </row>
     <row r="5">
@@ -593,10 +593,10 @@
         <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
-        <v>382.64</v>
+        <v>204.08</v>
       </c>
     </row>
     <row r="6">
@@ -627,10 +627,10 @@
         <v>0.03</v>
       </c>
       <c r="G6" t="n">
-        <v>754</v>
+        <v>15</v>
       </c>
       <c r="H6" t="n">
-        <v>284.33</v>
+        <v>1856.11</v>
       </c>
     </row>
     <row r="7">
@@ -661,10 +661,10 @@
         <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>172.88</v>
+        <v>762.04</v>
       </c>
     </row>
     <row r="8">
@@ -692,13 +692,13 @@
         <v>106</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G8" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>926.02</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
@@ -726,13 +726,13 @@
         <v>105</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>281.17</v>
+        <v>3500.04</v>
       </c>
     </row>
     <row r="10">
@@ -766,7 +766,7 @@
         <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>7.02</v>
+        <v>132.01</v>
       </c>
     </row>
     <row r="11">
@@ -794,13 +794,13 @@
         <v>103</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>57.01</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAU112</t>
+          <t>BOVAU111</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F2" t="n">
         <v>0.05</v>
       </c>
       <c r="G2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>7662.2</v>
+        <v>7072</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAU111</t>
+          <t>BOVAU110</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H3" t="n">
-        <v>4008.4</v>
+        <v>6494.79</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAU110</t>
+          <t>BOVAU109</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F4" t="n">
         <v>0.04</v>
       </c>
       <c r="G4" t="n">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="H4" t="n">
-        <v>17937.53</v>
+        <v>4087.8</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAU109</t>
+          <t>BOVAU108</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F5" t="n">
         <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>10</v>
+        <v>823</v>
       </c>
       <c r="H5" t="n">
-        <v>204.08</v>
+        <v>836.58</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAU108</t>
+          <t>BOVAU107</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F6" t="n">
         <v>0.03</v>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H6" t="n">
-        <v>1856.11</v>
+        <v>1989.04</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAU107</t>
+          <t>BOVAU106</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G7" t="n">
         <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>762.04</v>
+        <v>591.03</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAU106</t>
+          <t>BOVAU105</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H8" t="n">
-        <v>89</v>
+        <v>310.98</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAU105</t>
+          <t>BOVAU104</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F9" t="n">
         <v>0.02</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>3500.04</v>
+        <v>640</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAU104</t>
+          <t>BOVAU103</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>132.01</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAU103</t>
+          <t>BOVAU102</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F11" t="n">
         <v>0.02</v>
@@ -800,7 +800,7 @@
         <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -488,13 +488,13 @@
         <v>111</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G2" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>7072</v>
+        <v>484.28</v>
       </c>
     </row>
     <row r="3">
@@ -522,13 +522,13 @@
         <v>110</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G3" t="n">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="H3" t="n">
-        <v>6494.79</v>
+        <v>3033.1</v>
       </c>
     </row>
     <row r="4">
@@ -556,13 +556,13 @@
         <v>109</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G4" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>4087.8</v>
+        <v>819.8</v>
       </c>
     </row>
     <row r="5">
@@ -593,10 +593,10 @@
         <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>823</v>
+        <v>1429</v>
       </c>
       <c r="H5" t="n">
-        <v>836.58</v>
+        <v>618.04</v>
       </c>
     </row>
     <row r="6">
@@ -627,10 +627,10 @@
         <v>0.03</v>
       </c>
       <c r="G6" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H6" t="n">
-        <v>1989.04</v>
+        <v>2306.03</v>
       </c>
     </row>
     <row r="7">
@@ -692,13 +692,13 @@
         <v>105</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>310.98</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -732,7 +732,7 @@
         <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>640</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -797,10 +797,10 @@
         <v>0.02</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAU111</t>
+          <t>BOVAU112</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>484.28</v>
+        <v>2970.03</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAU110</t>
+          <t>BOVAU111</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G3" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H3" t="n">
-        <v>3033.1</v>
+        <v>1361.28</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAU109</t>
+          <t>BOVAU110</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F4" t="n">
         <v>0.03</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="H4" t="n">
-        <v>819.8</v>
+        <v>30810.53</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAU108</t>
+          <t>BOVAU109</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F5" t="n">
         <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>1429</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>618.04</v>
+        <v>819.8</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAU107</t>
+          <t>BOVAU108</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F6" t="n">
         <v>0.03</v>
       </c>
       <c r="G6" t="n">
-        <v>19</v>
+        <v>401</v>
       </c>
       <c r="H6" t="n">
-        <v>2306.03</v>
+        <v>209.27</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAU106</t>
+          <t>BOVAU107</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H7" t="n">
-        <v>591.03</v>
+        <v>307.82</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAU105</t>
+          <t>BOVAU106</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>18</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAU104</t>
+          <t>BOVAU105</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H9" t="n">
-        <v>40</v>
+        <v>316.98</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAU103</t>
+          <t>BOVAU104</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F10" t="n">
         <v>0.02</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAU102</t>
+          <t>BOVAU103</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F11" t="n">
         <v>0.02</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>300</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -491,10 +491,10 @@
         <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="H2" t="n">
-        <v>2970.03</v>
+        <v>3836.9</v>
       </c>
     </row>
     <row r="3">
@@ -522,13 +522,13 @@
         <v>111</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>1361.28</v>
+        <v>38.2</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         <v>0.03</v>
       </c>
       <c r="G4" t="n">
-        <v>40</v>
+        <v>892</v>
       </c>
       <c r="H4" t="n">
-        <v>30810.53</v>
+        <v>1645.28</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +590,13 @@
         <v>109</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H5" t="n">
-        <v>819.8</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="6">
@@ -624,13 +624,13 @@
         <v>108</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>401</v>
+        <v>30</v>
       </c>
       <c r="H6" t="n">
-        <v>209.27</v>
+        <v>451.11</v>
       </c>
     </row>
     <row r="7">
@@ -695,10 +695,10 @@
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>60.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -760,13 +760,13 @@
         <v>104</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -794,13 +794,13 @@
         <v>103</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H11" t="n">
-        <v>26</v>
+        <v>992</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAU112</t>
+          <t>BOVAU111</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="G2" t="n">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="H2" t="n">
-        <v>3836.9</v>
+        <v>359.39</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAU111</t>
+          <t>BOVAU110</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>2178</v>
       </c>
       <c r="H3" t="n">
-        <v>38.2</v>
+        <v>29490.61</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAU110</t>
+          <t>BOVAU109</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G4" t="n">
-        <v>892</v>
+        <v>13</v>
       </c>
       <c r="H4" t="n">
-        <v>1645.28</v>
+        <v>1995.54</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAU109</t>
+          <t>BOVAU108</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="G5" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H5" t="n">
-        <v>1661</v>
+        <v>1388.23</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAU108</t>
+          <t>BOVAU107</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G6" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="H6" t="n">
-        <v>451.11</v>
+        <v>306.43</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAU107</t>
+          <t>BOVAU106</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F7" t="n">
         <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H7" t="n">
-        <v>307.82</v>
+        <v>2024.28</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAU106</t>
+          <t>BOVAU105</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>2805.76</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAU105</t>
+          <t>BOVAU104</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>316.98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAU104</t>
+          <t>BOVAU103</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H10" t="n">
-        <v>60</v>
+        <v>1028.89</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAU103</t>
+          <t>BOVAU102</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H11" t="n">
-        <v>992</v>
+        <v>2530.01</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -488,13 +488,13 @@
         <v>111</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>359.39</v>
+        <v>23.03</v>
       </c>
     </row>
     <row r="3">
@@ -522,13 +522,13 @@
         <v>110</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G3" t="n">
-        <v>2178</v>
+        <v>140</v>
       </c>
       <c r="H3" t="n">
-        <v>29490.61</v>
+        <v>25253.45</v>
       </c>
     </row>
     <row r="4">
@@ -556,13 +556,13 @@
         <v>109</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H4" t="n">
-        <v>1995.54</v>
+        <v>120.96</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +590,13 @@
         <v>108</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="H5" t="n">
-        <v>1388.23</v>
+        <v>910.08</v>
       </c>
     </row>
     <row r="6">
@@ -624,13 +624,13 @@
         <v>107</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>306.43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -661,10 +661,10 @@
         <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H7" t="n">
-        <v>2024.28</v>
+        <v>993</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         <v>0.02</v>
       </c>
       <c r="G8" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H8" t="n">
-        <v>2805.76</v>
+        <v>1167.34</v>
       </c>
     </row>
     <row r="9">
@@ -729,10 +729,10 @@
         <v>0.02</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H9" t="n">
-        <v>119</v>
+        <v>317.34</v>
       </c>
     </row>
     <row r="10">
@@ -763,10 +763,10 @@
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>1028.89</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11">
@@ -797,10 +797,10 @@
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>2530.01</v>
+        <v>15.06</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -491,10 +491,10 @@
         <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>23.03</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3">
@@ -525,10 +525,10 @@
         <v>0.03</v>
       </c>
       <c r="G3" t="n">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="H3" t="n">
-        <v>25253.45</v>
+        <v>8619.540000000001</v>
       </c>
     </row>
     <row r="4">
@@ -556,13 +556,13 @@
         <v>109</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
-        <v>120.96</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="5">
@@ -593,10 +593,10 @@
         <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="H5" t="n">
-        <v>910.08</v>
+        <v>52.08</v>
       </c>
     </row>
     <row r="6">
@@ -627,10 +627,10 @@
         <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H6" t="n">
-        <v>60</v>
+        <v>1153.5</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         <v>106</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="H7" t="n">
-        <v>993</v>
+        <v>233.83</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         <v>0.02</v>
       </c>
       <c r="G8" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>1167.34</v>
+        <v>190.66</v>
       </c>
     </row>
     <row r="9">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -488,13 +488,13 @@
         <v>111</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>8</v>
+        <v>728</v>
       </c>
       <c r="H2" t="n">
-        <v>410</v>
+        <v>330.18</v>
       </c>
     </row>
     <row r="3">
@@ -522,13 +522,13 @@
         <v>110</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H3" t="n">
-        <v>8619.540000000001</v>
+        <v>3986.02</v>
       </c>
     </row>
     <row r="4">
@@ -556,13 +556,13 @@
         <v>109</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" t="n">
-        <v>2182</v>
+        <v>405.02</v>
       </c>
     </row>
     <row r="5">
@@ -593,10 +593,10 @@
         <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="H5" t="n">
-        <v>52.08</v>
+        <v>1680.5</v>
       </c>
     </row>
     <row r="6">
@@ -627,10 +627,10 @@
         <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1153.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -695,10 +695,10 @@
         <v>0.02</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="H8" t="n">
-        <v>190.66</v>
+        <v>2961.76</v>
       </c>
     </row>
     <row r="9">
@@ -726,13 +726,13 @@
         <v>104</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H9" t="n">
-        <v>317.34</v>
+        <v>160.63</v>
       </c>
     </row>
     <row r="10">
@@ -763,10 +763,10 @@
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H10" t="n">
-        <v>520</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -797,10 +797,10 @@
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>15.06</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAU111</t>
+          <t>BOVAU110</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F2" t="n">
         <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>728</v>
+        <v>15</v>
       </c>
       <c r="H2" t="n">
-        <v>330.18</v>
+        <v>2108.95</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAU110</t>
+          <t>BOVAU109</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G3" t="n">
         <v>13</v>
       </c>
       <c r="H3" t="n">
-        <v>3986.02</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAU109</t>
+          <t>BOVAU108</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="H4" t="n">
-        <v>405.02</v>
+        <v>251.76</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAU108</t>
+          <t>BOVAU107</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>153</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>1680.5</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAU107</t>
+          <t>BOVAU106</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAU106</t>
+          <t>BOVAU105</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>233.83</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAU105</t>
+          <t>BOVAU104</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>2961.76</v>
+        <v>36.06</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAU104</t>
+          <t>BOVAU103</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>160.63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAU103</t>
+          <t>BOVAU102</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAU102</t>
+          <t>BOVAU100</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H11" t="n">
-        <v>30</v>
+        <v>439.01</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAU110</t>
+          <t>BOVAU111</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>2108.95</v>
+        <v>12.11</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAU109</t>
+          <t>BOVAU110</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="H3" t="n">
-        <v>1278</v>
+        <v>25676.03</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAU108</t>
+          <t>BOVAU109</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F4" t="n">
         <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="H4" t="n">
-        <v>251.76</v>
+        <v>1219.04</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAU107</t>
+          <t>BOVAU108</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="H5" t="n">
-        <v>202</v>
+        <v>630.5599999999999</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAU106</t>
+          <t>BOVAU107</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>100</v>
+        <v>330.02</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAU105</t>
+          <t>BOVAU106</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H7" t="n">
-        <v>1000</v>
+        <v>458.5</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAU104</t>
+          <t>BOVAU105</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
@@ -698,7 +698,7 @@
         <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>36.06</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAU103</t>
+          <t>BOVAU104</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAU102</t>
+          <t>BOVAU103</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAU100</t>
+          <t>BOVAU102</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>439.01</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -491,10 +491,10 @@
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>12.11</v>
+        <v>622.05</v>
       </c>
     </row>
     <row r="3">
@@ -525,10 +525,10 @@
         <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="H3" t="n">
-        <v>25676.03</v>
+        <v>1930.19</v>
       </c>
     </row>
     <row r="4">
@@ -556,13 +556,13 @@
         <v>109</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H4" t="n">
-        <v>1219.04</v>
+        <v>162.6</v>
       </c>
     </row>
     <row r="5">
@@ -593,10 +593,10 @@
         <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="H5" t="n">
-        <v>630.5599999999999</v>
+        <v>32.05</v>
       </c>
     </row>
     <row r="6">
@@ -624,13 +624,13 @@
         <v>107</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>330.02</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7">
@@ -661,10 +661,10 @@
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>458.5</v>
+        <v>227.5</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H8" t="n">
-        <v>40</v>
+        <v>10.44</v>
       </c>
     </row>
     <row r="9">
@@ -729,10 +729,10 @@
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -488,13 +488,13 @@
         <v>111</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="H2" t="n">
-        <v>622.05</v>
+        <v>5749.56</v>
       </c>
     </row>
     <row r="3">
@@ -525,10 +525,10 @@
         <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="H3" t="n">
-        <v>1930.19</v>
+        <v>13877.28</v>
       </c>
     </row>
     <row r="4">
@@ -556,13 +556,13 @@
         <v>109</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" t="n">
-        <v>162.6</v>
+        <v>3927.02</v>
       </c>
     </row>
     <row r="5">
@@ -593,10 +593,10 @@
         <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="H5" t="n">
-        <v>32.05</v>
+        <v>3738.71</v>
       </c>
     </row>
     <row r="6">
@@ -624,13 +624,13 @@
         <v>107</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="H6" t="n">
-        <v>250</v>
+        <v>4179.04</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         <v>106</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>227.5</v>
+        <v>2133.36</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H8" t="n">
-        <v>10.44</v>
+        <v>855.73</v>
       </c>
     </row>
     <row r="9">
@@ -729,10 +729,10 @@
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>500</v>
+        <v>586</v>
       </c>
     </row>
     <row r="10">
@@ -763,10 +763,10 @@
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAU111</t>
+          <t>BOVAU110</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>28</v>
+        <v>187</v>
       </c>
       <c r="H2" t="n">
-        <v>5749.56</v>
+        <v>7233.89</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAU110</t>
+          <t>BOVAU109</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F3" t="n">
         <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="H3" t="n">
-        <v>13877.28</v>
+        <v>20251.1</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAU109</t>
+          <t>BOVAU108</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="H4" t="n">
-        <v>3927.02</v>
+        <v>20961.43</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAU108</t>
+          <t>BOVAU107</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="H5" t="n">
-        <v>3738.71</v>
+        <v>1155.79</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAU107</t>
+          <t>BOVAU106</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H6" t="n">
-        <v>4179.04</v>
+        <v>16439.5</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAU106</t>
+          <t>BOVAU105</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>2133.36</v>
+        <v>813.46</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAU105</t>
+          <t>BOVAU104</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
-        <v>855.73</v>
+        <v>55030</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAU104</t>
+          <t>BOVAU103</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>586</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAU103</t>
+          <t>BOVAU102</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H10" t="n">
-        <v>20</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAU102</t>
+          <t>BOVAU100</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>5.1</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -471,12 +471,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-18</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAU110</t>
+          <t>BOVAV109</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="G2" t="n">
-        <v>187</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>7233.89</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="3">
@@ -505,12 +505,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-18</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAU109</t>
+          <t>BOVAV108</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="G3" t="n">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="H3" t="n">
-        <v>20251.1</v>
+        <v>8718.16</v>
       </c>
     </row>
     <row r="4">
@@ -539,12 +539,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-18</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAU108</t>
+          <t>BOVAV107</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="G4" t="n">
-        <v>194</v>
+        <v>11</v>
       </c>
       <c r="H4" t="n">
-        <v>20961.43</v>
+        <v>13334.04</v>
       </c>
     </row>
     <row r="5">
@@ -573,12 +573,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-18</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAU107</t>
+          <t>BOVAV106</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="G5" t="n">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="H5" t="n">
-        <v>1155.79</v>
+        <v>43841.88</v>
       </c>
     </row>
     <row r="6">
@@ -607,12 +607,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-18</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAU106</t>
+          <t>BOVAV105</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="G6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" t="n">
-        <v>16439.5</v>
+        <v>4214.06</v>
       </c>
     </row>
     <row r="7">
@@ -641,12 +641,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-18</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAU105</t>
+          <t>BOVAV104</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H7" t="n">
-        <v>813.46</v>
+        <v>7893.11</v>
       </c>
     </row>
     <row r="8">
@@ -675,12 +675,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-18</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAU104</t>
+          <t>BOVAV103</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>55030</v>
+        <v>1738.46</v>
       </c>
     </row>
     <row r="9">
@@ -709,12 +709,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-18</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAU103</t>
+          <t>BOVAV102</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="H9" t="n">
-        <v>20</v>
+        <v>5504.75</v>
       </c>
     </row>
     <row r="10">
@@ -743,12 +743,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-18</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAU102</t>
+          <t>BOVAV101</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="G10" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>4.68</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11">
@@ -777,12 +777,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-18</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAU100</t>
+          <t>BOVAV100</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -794,13 +794,13 @@
         <v>100</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="G11" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H11" t="n">
-        <v>5.1</v>
+        <v>15412.5</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAV109</t>
+          <t>BOVAV108</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>1150</v>
+        <v>5554</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAV108</t>
+          <t>BOVAV107</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F3" t="n">
         <v>0.1</v>
       </c>
       <c r="G3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H3" t="n">
-        <v>8718.16</v>
+        <v>11804.6</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAV107</t>
+          <t>BOVAV106</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="G4" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H4" t="n">
-        <v>13334.04</v>
+        <v>26791</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAV106</t>
+          <t>BOVAV105</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="G5" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H5" t="n">
-        <v>43841.88</v>
+        <v>15544.7</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAV105</t>
+          <t>BOVAV104</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G6" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H6" t="n">
-        <v>4214.06</v>
+        <v>21009</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAV104</t>
+          <t>BOVAV103</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G7" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>7893.11</v>
+        <v>8960</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAV103</t>
+          <t>BOVAV102</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H8" t="n">
-        <v>1738.46</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAV102</t>
+          <t>BOVAV101</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G9" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>5504.75</v>
+        <v>750</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAV101</t>
+          <t>BOVAV100</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H10" t="n">
-        <v>500</v>
+        <v>820.5</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAV100</t>
+          <t>BOVAV980</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G11" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H11" t="n">
-        <v>15412.5</v>
+        <v>869.76</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAV108</t>
+          <t>BOVAV107</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F2" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>5554</v>
+        <v>2414.77</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAV107</t>
+          <t>BOVAV106</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="G3" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H3" t="n">
-        <v>11804.6</v>
+        <v>814.5599999999999</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAV106</t>
+          <t>BOVAV105</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F4" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="G4" t="n">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="H4" t="n">
-        <v>26791</v>
+        <v>23909.27</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAV105</t>
+          <t>BOVAV104</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="G5" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>15544.7</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAV104</t>
+          <t>BOVAV103</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>21009</v>
+        <v>700</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAV103</t>
+          <t>BOVAV102</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="H7" t="n">
-        <v>8960</v>
+        <v>7749.69</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAV102</t>
+          <t>BOVAV101</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="G8" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="H8" t="n">
-        <v>3180</v>
+        <v>3955</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAV101</t>
+          <t>BOVAV100</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="H9" t="n">
-        <v>750</v>
+        <v>36479.05</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAV100</t>
+          <t>BOVAV980</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="G10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H10" t="n">
-        <v>820.5</v>
+        <v>4060.4</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAV980</t>
+          <t>BOVAV970</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F11" t="n">
         <v>0.04</v>
       </c>
       <c r="G11" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>869.76</v>
+        <v>902</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAV107</t>
+          <t>BOVAV109</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F2" t="n">
         <v>0.1</v>
       </c>
       <c r="G2" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>2414.77</v>
+        <v>12926.8</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAV106</t>
+          <t>BOVAV108</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F3" t="n">
         <v>0.09</v>
@@ -528,7 +528,7 @@
         <v>14</v>
       </c>
       <c r="H3" t="n">
-        <v>814.5599999999999</v>
+        <v>12445.18</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAV105</t>
+          <t>BOVAV107</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G4" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H4" t="n">
-        <v>23909.27</v>
+        <v>24535</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAV104</t>
+          <t>BOVAV106</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="H5" t="n">
-        <v>1510</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAV103</t>
+          <t>BOVAV105</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="H6" t="n">
-        <v>700</v>
+        <v>5753.82</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAV102</t>
+          <t>BOVAV104</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F7" t="n">
         <v>0.06</v>
       </c>
       <c r="G7" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="H7" t="n">
-        <v>7749.69</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAV101</t>
+          <t>BOVAV103</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F8" t="n">
         <v>0.05</v>
       </c>
       <c r="G8" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>3955</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAV100</t>
+          <t>BOVAV102</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G9" t="n">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>36479.05</v>
+        <v>54.75</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAV980</t>
+          <t>BOVAV101</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H10" t="n">
-        <v>4060.4</v>
+        <v>338.03</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAV970</t>
+          <t>BOVAV100</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F11" t="n">
         <v>0.04</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="H11" t="n">
-        <v>902</v>
+        <v>3902</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAV109</t>
+          <t>BOVAV108</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="G2" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="H2" t="n">
-        <v>12926.8</v>
+        <v>2038.5</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAV108</t>
+          <t>BOVAV107</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F3" t="n">
         <v>0.09</v>
       </c>
       <c r="G3" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>12445.18</v>
+        <v>3123.31</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAV107</t>
+          <t>BOVAV106</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H4" t="n">
-        <v>24535</v>
+        <v>8308.639999999999</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAV106</t>
+          <t>BOVAV105</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H5" t="n">
-        <v>5600</v>
+        <v>14101.32</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAV105</t>
+          <t>BOVAV104</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F6" t="n">
         <v>0.06</v>
       </c>
       <c r="G6" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H6" t="n">
-        <v>5753.82</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAV104</t>
+          <t>BOVAV103</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G7" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>2450</v>
+        <v>525</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAV103</t>
+          <t>BOVAV102</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>420</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAV102</t>
+          <t>BOVAV101</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" t="n">
         <v>0.05</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H9" t="n">
-        <v>54.75</v>
+        <v>338.03</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAV101</t>
+          <t>BOVAV100</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G10" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="H10" t="n">
-        <v>338.03</v>
+        <v>7980.07</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAV100</t>
+          <t>BOVAV980</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G11" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="H11" t="n">
-        <v>3902</v>
+        <v>1230</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAV108</t>
+          <t>BOVAV109</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="G2" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>2038.5</v>
+        <v>8107.32</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAV107</t>
+          <t>BOVAV108</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>3123.31</v>
+        <v>3686.18</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAV106</t>
+          <t>BOVAV107</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="G4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" t="n">
-        <v>8308.639999999999</v>
+        <v>2738.12</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAV105</t>
+          <t>BOVAV106</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="G5" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>14101.32</v>
+        <v>3010.05</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAV104</t>
+          <t>BOVAV105</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="G6" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H6" t="n">
-        <v>2450</v>
+        <v>3294.04</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAV103</t>
+          <t>BOVAV104</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>525</v>
+        <v>82.90000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAV102</t>
+          <t>BOVAV103</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H8" t="n">
-        <v>600</v>
+        <v>3340.06</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAV101</t>
+          <t>BOVAV102</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="G9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>338.03</v>
+        <v>74.52</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAV100</t>
+          <t>BOVAV101</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G10" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="H10" t="n">
-        <v>7980.07</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAV980</t>
+          <t>BOVAV100</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="H11" t="n">
-        <v>1230</v>
+        <v>6651.02</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -491,10 +491,10 @@
         <v>0.05</v>
       </c>
       <c r="G2" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>8107.32</v>
+        <v>3604.54</v>
       </c>
     </row>
     <row r="3">
@@ -522,13 +522,13 @@
         <v>108</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>3686.18</v>
+        <v>2995.65</v>
       </c>
     </row>
     <row r="4">
@@ -556,13 +556,13 @@
         <v>107</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G4" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>2738.12</v>
+        <v>7.08</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +590,13 @@
         <v>106</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>3010.05</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6">
@@ -627,10 +627,10 @@
         <v>0.03</v>
       </c>
       <c r="G6" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H6" t="n">
-        <v>3294.04</v>
+        <v>2296.05</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         <v>104</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="H7" t="n">
-        <v>82.90000000000001</v>
+        <v>6468.44</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         <v>0.02</v>
       </c>
       <c r="G8" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>3340.06</v>
+        <v>240.2</v>
       </c>
     </row>
     <row r="9">
@@ -729,10 +729,10 @@
         <v>0.02</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" t="n">
-        <v>74.52</v>
+        <v>700</v>
       </c>
     </row>
     <row r="10">
@@ -797,10 +797,10 @@
         <v>0.02</v>
       </c>
       <c r="G11" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H11" t="n">
-        <v>6651.02</v>
+        <v>3082</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -488,13 +488,13 @@
         <v>109</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>3604.54</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="3">
@@ -522,13 +522,13 @@
         <v>108</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2995.65</v>
+        <v>309.36</v>
       </c>
     </row>
     <row r="4">
@@ -556,13 +556,13 @@
         <v>107</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>7.08</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
@@ -624,13 +624,13 @@
         <v>105</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>2296.05</v>
+        <v>388.46</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         <v>104</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G7" t="n">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="H7" t="n">
-        <v>6468.44</v>
+        <v>900.05</v>
       </c>
     </row>
     <row r="8">
@@ -692,13 +692,13 @@
         <v>103</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G8" t="n">
         <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>240.2</v>
+        <v>410.11</v>
       </c>
     </row>
     <row r="9">
@@ -726,13 +726,13 @@
         <v>102</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H9" t="n">
-        <v>700</v>
+        <v>900.22</v>
       </c>
     </row>
     <row r="10">
@@ -763,10 +763,10 @@
         <v>0.02</v>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>154</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -794,13 +794,13 @@
         <v>100</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>33</v>
+        <v>1057</v>
       </c>
       <c r="H11" t="n">
-        <v>3082</v>
+        <v>17311</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -491,10 +491,10 @@
         <v>0.04</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="H2" t="n">
-        <v>2960</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="3">
@@ -525,10 +525,10 @@
         <v>0.03</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>309.36</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         <v>0.04</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>41</v>
+        <v>1263.44</v>
       </c>
     </row>
     <row r="5">
@@ -593,10 +593,10 @@
         <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H5" t="n">
-        <v>600</v>
+        <v>434.65</v>
       </c>
     </row>
     <row r="6">
@@ -627,10 +627,10 @@
         <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="H6" t="n">
-        <v>388.46</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="7">
@@ -661,10 +661,10 @@
         <v>0.03</v>
       </c>
       <c r="G7" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>900.05</v>
+        <v>1412.03</v>
       </c>
     </row>
     <row r="8">
@@ -692,13 +692,13 @@
         <v>103</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H8" t="n">
-        <v>410.11</v>
+        <v>1120.04</v>
       </c>
     </row>
     <row r="9">
@@ -726,13 +726,13 @@
         <v>102</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>900.22</v>
+        <v>918.02</v>
       </c>
     </row>
     <row r="10">
@@ -763,10 +763,10 @@
         <v>0.02</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07000000000000001</v>
+        <v>764</v>
       </c>
     </row>
     <row r="11">
@@ -797,10 +797,10 @@
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>1057</v>
+        <v>35</v>
       </c>
       <c r="H11" t="n">
-        <v>17311</v>
+        <v>23183.03</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -488,13 +488,13 @@
         <v>109</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>1508</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -522,13 +522,13 @@
         <v>108</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>1514</v>
+        <v>260.04</v>
       </c>
     </row>
     <row r="4">
@@ -556,13 +556,13 @@
         <v>107</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>1263.44</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +590,13 @@
         <v>106</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>434.65</v>
+        <v>1396.02</v>
       </c>
     </row>
     <row r="6">
@@ -627,10 +627,10 @@
         <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1899</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         <v>104</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1412.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="8">
@@ -692,13 +692,13 @@
         <v>103</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="H8" t="n">
-        <v>1120.04</v>
+        <v>2109.89</v>
       </c>
     </row>
     <row r="9">
@@ -726,13 +726,13 @@
         <v>102</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>918.02</v>
+        <v>1283.02</v>
       </c>
     </row>
     <row r="10">
@@ -760,13 +760,13 @@
         <v>101</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H10" t="n">
-        <v>764</v>
+        <v>846.02</v>
       </c>
     </row>
     <row r="11">
@@ -797,10 +797,10 @@
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>23183.03</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAV109</t>
+          <t>BOVAV108</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F2" t="n">
         <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>100</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAV108</t>
+          <t>BOVAV107</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F3" t="n">
         <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="H3" t="n">
-        <v>260.04</v>
+        <v>7828.83</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAV107</t>
+          <t>BOVAV106</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H4" t="n">
-        <v>150</v>
+        <v>2085.56</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAV106</t>
+          <t>BOVAV105</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F5" t="n">
         <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H5" t="n">
-        <v>1396.02</v>
+        <v>1071.52</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAV105</t>
+          <t>BOVAV104</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F6" t="n">
         <v>0.02</v>
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAV104</t>
+          <t>BOVAV103</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02</v>
+        <v>255.01</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAV103</t>
+          <t>BOVAV102</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>2109.89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAV102</t>
+          <t>BOVAV101</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H9" t="n">
-        <v>1283.02</v>
+        <v>1145.49</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAV101</t>
+          <t>BOVAV100</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="H10" t="n">
-        <v>846.02</v>
+        <v>7381.46</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAV100</t>
+          <t>BOVAV980</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>140</v>
+        <v>99.37</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -491,10 +491,10 @@
         <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>3902</v>
+        <v>400.02</v>
       </c>
     </row>
     <row r="3">
@@ -525,10 +525,10 @@
         <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>7828.83</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4">
@@ -593,10 +593,10 @@
         <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>1071.52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -624,13 +624,13 @@
         <v>104</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -661,10 +661,10 @@
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="H7" t="n">
-        <v>255.01</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="H8" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -729,10 +729,10 @@
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H9" t="n">
-        <v>1145.49</v>
+        <v>45.01</v>
       </c>
     </row>
     <row r="10">
@@ -763,10 +763,10 @@
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>7381.46</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAV108</t>
+          <t>BOVAV109</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H2" t="n">
-        <v>400.02</v>
+        <v>84.01000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAV107</t>
+          <t>BOVAV108</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>220</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAV106</t>
+          <t>BOVAV107</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F4" t="n">
         <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2085.56</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAV105</t>
+          <t>BOVAV106</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>70</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAV104</t>
+          <t>BOVAV105</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H6" t="n">
-        <v>17</v>
+        <v>190.04</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAV103</t>
+          <t>BOVAV104</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>489</v>
+        <v>455.03</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAV102</t>
+          <t>BOVAV103</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAV101</t>
+          <t>BOVAV102</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>45.01</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAV100</t>
+          <t>BOVAV101</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>70.01000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAV980</t>
+          <t>BOVAV100</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>99.37</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAV109</t>
+          <t>BOVAV108</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F2" t="n">
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>84.01000000000001</v>
+        <v>70.01000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAV108</t>
+          <t>BOVAV107</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
@@ -528,7 +528,7 @@
         <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>10.01</v>
+        <v>380.13</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAV107</t>
+          <t>BOVAV106</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>220</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAV106</t>
+          <t>BOVAV105</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F5" t="n">
         <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>55.6</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAV105</t>
+          <t>BOVAV104</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
-        <v>190.04</v>
+        <v>455.03</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAV104</t>
+          <t>BOVAV103</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>455.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAV103</t>
+          <t>BOVAV102</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAV102</t>
+          <t>BOVAV101</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>98</v>
+        <v>70.01000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAV101</t>
+          <t>BOVAV100</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>70.01000000000001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAV100</t>
+          <t>BOVAV980</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
